--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3175528.415567012</v>
+        <v>3169806.803599126</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>288.6238257175852</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>186.250717003031</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>11.90975838011544</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.362076874839</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>93.69509347866833</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.82466560786628</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>51.33268671918096</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>176.4189250636852</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.91385451133275</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70191565295227</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>69.58060060097294</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>263.2222125527044</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>59.21589892807035</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2022,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>195.5579725191732</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>52.66832406458406</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>69.26944046999475</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.27425763252468</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247655</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>7.601081015447153</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.9364757300295</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>66.15430777018908</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>188.2028932833509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22.49406110729872</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292605</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>45.77287040086577</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.55485809114246</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>135.2604010533428</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3510358808136</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1156.179761166176</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.179761166176</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y2" t="n">
-        <v>1542.779601230298</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2655.702112902031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>2486.765929974124</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D4" t="n">
-        <v>2486.765929974124</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>2338.852836391731</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>2191.96288889382</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2655.702112902031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>2655.702112902031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>2655.702112902031</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.75737613363</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>906.5618456510797</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>548.2961470443292</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>162.507894446085</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.597857825387</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2068.619613065019</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>2068.619613065019</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>2153.290992466904</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>2068.619613065019</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>2068.619613065019</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>586.5435612426379</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>586.5435612426379</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2645.297892311979</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2645.297892311979</v>
       </c>
       <c r="T8" t="n">
-        <v>2287.741979455123</v>
+        <v>2645.297892311979</v>
       </c>
       <c r="U8" t="n">
-        <v>2033.980194093214</v>
+        <v>2645.297892311979</v>
       </c>
       <c r="V8" t="n">
-        <v>1702.917306749644</v>
+        <v>2645.297892311979</v>
       </c>
       <c r="W8" t="n">
-        <v>1350.148651479529</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="X8" t="n">
-        <v>976.6828932184496</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="Y8" t="n">
-        <v>586.5435612426379</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2454.095040613808</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>2454.095040613808</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>2454.095040613808</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>2306.181947031415</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>2159.291999533505</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>2159.291999533505</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>2159.291999533505</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>2697.149091018222</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>2697.149091018222</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W10" t="n">
-        <v>2697.149091018222</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>2469.159540120205</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>2469.159540120205</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5044,19 +5044,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686787</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M11" t="n">
-        <v>2649.230460361821</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
         <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5068,25 +5068,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5141,19 +5141,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.8948606428723</v>
+        <v>1043.032939826103</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8948606428723</v>
+        <v>874.0967568981962</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7782212305366</v>
+        <v>723.9801174858604</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1277.009943720547</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1022.32545551466</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.32545551466</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="X13" t="n">
-        <v>794.3359046166422</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.5433254731121</v>
+        <v>1224.681404656343</v>
       </c>
     </row>
     <row r="14">
@@ -5263,52 +5263,52 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867998</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3189.361480106702</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986039</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5369,28 +5369,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1806.698969540948</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1584.932354110474</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1295.829487236118</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1041.144999030231</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1041.144999030231</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>813.1554481322135</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.3628689886833</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,67 +5500,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2707.641918722171</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3254.420735780953</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086364</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425112</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419657</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446542</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.01948227916</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917027</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809182</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789529</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297019</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773122</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419722</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012239</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505719</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183574</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.75863531799</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086247</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358045</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387559</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1023.336921276364</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4007383484569</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1567.124276356607</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1278.021409482251</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1023.336921276364</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1023.336921276364</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1023.336921276364</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y19" t="n">
-        <v>1023.336921276364</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,13 +5740,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5755,25 +5755,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>1923.729615463052</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2903.481887689699</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3783.446538019154</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5782,22 +5782,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008794</v>
@@ -5852,19 +5852,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3512.71497577567</v>
+        <v>972.7495048756253</v>
       </c>
       <c r="C22" t="n">
-        <v>3512.71497577567</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D22" t="n">
-        <v>3362.598336363335</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E22" t="n">
-        <v>3214.685242780941</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>3067.795295283031</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>3014.594967945067</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945067</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>4466.454649746775</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>4466.454649746775</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V22" t="n">
-        <v>4211.770161540888</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="W22" t="n">
-        <v>3922.352991503927</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X22" t="n">
-        <v>3694.36344060591</v>
+        <v>1375.190548849395</v>
       </c>
       <c r="Y22" t="n">
-        <v>3694.36344060591</v>
+        <v>1154.397969705865</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5992,43 +5992,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>786.6724891157203</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364129</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
         <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6080,28 +6080,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>876.4469737784534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862231</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1322.725653781988</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1322.725653781988</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1094.73610288397</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.095438608693</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>416.360692471045</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608913</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814246</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644074</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870721</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>855.6340846510827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
-        <v>686.6979017231758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>536.5812623108401</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689057</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689057</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V28" t="n">
-        <v>1674.827124689057</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W28" t="n">
-        <v>1385.409954652097</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X28" t="n">
-        <v>1157.420403754079</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y28" t="n">
-        <v>1037.282549481322</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608913</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644074</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>529.525731183237</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>998.7893082582079</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>931.9667751570069</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.1741960134767</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="32">
@@ -6679,73 +6679,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427191</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L32" t="n">
-        <v>1797.117834600129</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272053</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330835</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729.2066409118285</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.6435265574</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>910.8551057420682</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>910.8551057420682</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>910.8551057420682</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6940,19 +6940,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107237</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7019,7 +7019,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7028,16 +7028,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.8310435707792</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8948606428723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D37" t="n">
-        <v>241.7782212305366</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E37" t="n">
-        <v>241.7782212305366</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1355.6435265574</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>811.5418683145529</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>583.5523174165355</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.5523174165355</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749765</v>
@@ -7162,43 +7162,43 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427191</v>
+        <v>818.2062848686787</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M38" t="n">
-        <v>2368.748013620956</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2915.526830679738</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946816</v>
@@ -7250,7 +7250,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390117</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>754.9793597803096</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>586.0431768524027</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>435.9265374400669</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>288.0134438576738</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>288.0134438576738</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
         <v>344.6708498442063</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1674.827124689057</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1674.827124689057</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W40" t="n">
-        <v>1385.409954652097</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X40" t="n">
-        <v>1157.420403754079</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y40" t="n">
-        <v>936.6278246105493</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="41">
@@ -7387,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427191</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2368.748013620956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2915.526830679738</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3795.491481009193</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.0071782166605</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3805104860112</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>998.7893082582079</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>770.7997573601906</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>550.0071782166605</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7660,40 +7660,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1842.857571275599</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1842.857571275599</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1553.754704401243</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1553.754704401243</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1264.337534364282</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1036.347983466265</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>815.5554043227345</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701136</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>308.4529749292141</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>374.1693948021949</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892655</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>17.45080131651133</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>170.1140909277314</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277304</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>133.2530576400254</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.917311333789257e-13</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>133.2530576400254</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0304280899001</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>258.6211785616943</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701136</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>342.3170758598136</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>283.3156027685506</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>76.85336204559623</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>22.9896256529085</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>130.5531264033716</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>23.99097675699599</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.3574841944442</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24186,16 +24186,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>156.4402149190424</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.3103957195701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>81.33107165460019</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.6481776220653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>159.5553476188481</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>98.32010505324013</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>157.3379190746386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>120.2529378581625</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.5827852326855</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>31.98642004528506</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>77.41798945062834</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="E2" t="n">
+        <v>675039.0377078709</v>
+      </c>
+      <c r="F2" t="n">
+        <v>675039.0377078712</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="H2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="F2" t="n">
-        <v>675039.0377078718</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="H2" t="n">
-        <v>675039.0377078712</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078716</v>
-      </c>
       <c r="J2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078713</v>
       </c>
       <c r="K2" t="n">
-        <v>675039.0377078709</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="L2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="M2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="N2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="O2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="P2" t="n">
         <v>675039.0377078716</v>
-      </c>
-      <c r="O2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="P2" t="n">
-        <v>675039.0377078714</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.044752888190441e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.028280773122484e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26426,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="G4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="N4" t="n">
         <v>18148.49231918995</v>
       </c>
-      <c r="H4" t="n">
-        <v>18148.4923191899</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.4923191899</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="M5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="N5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371363</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158290.1397504407</v>
+        <v>-158290.1397504409</v>
       </c>
       <c r="C6" t="n">
-        <v>431677.7394641037</v>
+        <v>431677.7394641036</v>
       </c>
       <c r="D6" t="n">
-        <v>431677.7394641037</v>
+        <v>431677.7394641036</v>
       </c>
       <c r="E6" t="n">
-        <v>-166870.386858439</v>
+        <v>-167542.3417606971</v>
       </c>
       <c r="F6" t="n">
-        <v>560507.0271349684</v>
+        <v>559835.0722327097</v>
       </c>
       <c r="G6" t="n">
-        <v>560507.027134968</v>
+        <v>559835.0722327098</v>
       </c>
       <c r="H6" t="n">
-        <v>560507.0271349676</v>
+        <v>559835.0722327101</v>
       </c>
       <c r="I6" t="n">
-        <v>560507.0271349681</v>
+        <v>559835.0722327101</v>
       </c>
       <c r="J6" t="n">
-        <v>384083.807942375</v>
+        <v>383411.8530401168</v>
       </c>
       <c r="K6" t="n">
-        <v>560507.0271349674</v>
+        <v>559835.07223271</v>
       </c>
       <c r="L6" t="n">
-        <v>560507.0271349676</v>
+        <v>559835.0722327098</v>
       </c>
       <c r="M6" t="n">
-        <v>430864.712296023</v>
+        <v>430192.757393765</v>
       </c>
       <c r="N6" t="n">
-        <v>560507.0271349681</v>
+        <v>559835.07223271</v>
       </c>
       <c r="O6" t="n">
-        <v>560507.0271349677</v>
+        <v>559835.0722327103</v>
       </c>
       <c r="P6" t="n">
-        <v>560507.0271349677</v>
+        <v>559835.0722327102</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.305941110238051e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66.05921590309771</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>64.97345050525834</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>75.23878421646965</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>274.6132399564756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137.3717647886415</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>313.1809522630431</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6983327287247</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>53.95978732560545</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.145715855630741</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>40.02939529397261</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.9181256706046</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.8210826836387</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.469682599151581e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-4.378124218042756e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425514</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>854.0890375411587</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>860.7548103421253</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>913.0905106324215</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>742.1016362021768</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>416.212787535883</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>507.3053774831317</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200623</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>324.0400586087379</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M26" t="n">
         <v>988.434649323059</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36834,7 +36834,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>470.4443441954258</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427824</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L32" t="n">
-        <v>866.6205424822321</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>797.5422943919208</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>539.157696425514</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>850.3700767480326</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>682.0775889879222</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,10 +38028,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3169806.803599126</v>
+        <v>3173212.294723575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>300.3215499425975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>186.250717003031</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>92.00803688215818</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10.12991191512417</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>93.69509347866833</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>61.86702018243364</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>171.7498680634317</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>299.8120100236809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>51.33268671918096</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.70191565295227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>67.24036028042124</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>69.58060060097294</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>111.9187566128689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>80.71606764504763</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>69.26944046999475</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>94.98017446060548</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.601081015447153</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>140.9031752657906</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>88.23797643592228</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>18.26879610203982</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>88.23797643592228</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>82.55485809114246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F43" t="n">
-        <v>17.25588147840188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.7744035713887</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="C2" t="n">
-        <v>74.81188663097703</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>357.2980827724832</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2277.810876486087</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1946.747989142516</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1593.979333872402</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1220.513575611322</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>830.3742436355105</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>635.1915732143555</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.524362591491</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C5" t="n">
-        <v>906.5618456510797</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>548.2961470443292</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>162.507894446085</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2458.479663754177</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2458.479663754177</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2458.479663754177</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2105.711008484063</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.124202655613</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4707,25 +4707,25 @@
         <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4767,7 +4767,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
         <v>554.6442689908469</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1167.48095743496</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>781.6927048367154</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>370.7068000471078</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>356.7833959856987</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2645.297892311979</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2645.297892311979</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2645.297892311979</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2645.297892311979</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2645.297892311979</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2292.529237041865</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X8" t="n">
-        <v>1919.063478780785</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.063478780785</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>818.2062848686787</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1682.725100522033</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,40 +5120,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1043.032939826103</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C13" t="n">
-        <v>874.0967568981962</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>723.9801174858604</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1828.498922546691</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.473983799873</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W13" t="n">
-        <v>1445.473983799873</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X13" t="n">
-        <v>1445.473983799873</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y13" t="n">
-        <v>1224.681404656343</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,52 +5278,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5381,16 +5381,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5503,16 +5503,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5533,19 +5533,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>506.8067350374723</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.8067350374723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5761,13 +5761,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5782,22 +5782,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.7495048756253</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C22" t="n">
-        <v>803.8133219477185</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1874.81208464506</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1874.81208464506</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.576850674229</v>
+        <v>1585.709217770703</v>
       </c>
       <c r="V22" t="n">
-        <v>1734.576850674229</v>
+        <v>1331.024729564816</v>
       </c>
       <c r="W22" t="n">
-        <v>1445.159680637269</v>
+        <v>1041.607559527856</v>
       </c>
       <c r="X22" t="n">
-        <v>1375.190548849395</v>
+        <v>813.6180086298384</v>
       </c>
       <c r="Y22" t="n">
-        <v>1154.397969705865</v>
+        <v>592.8254294863083</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,40 +5995,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,28 +6068,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>337.7177913927644</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>191.5006046106222</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364129</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6253,19 +6253,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142067</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282341</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1948.66560649314</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1948.66560649314</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1726.898991062666</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1437.79612418831</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6472,13 +6472,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6542,13 +6542,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>1333.228275394759</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>1043.811105357798</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433621</v>
+        <v>815.8215544597811</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998319</v>
+        <v>595.0289753162509</v>
       </c>
     </row>
     <row r="32">
@@ -6679,73 +6679,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>818.2062848686776</v>
+        <v>932.5990189467736</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522032</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6803,10 +6803,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>331.580251073499</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6891,19 +6891,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.9043113423046</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C37" t="n">
-        <v>260.9043113423046</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D37" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>114.0143638443942</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7140,7 +7140,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
         <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,10 +7177,10 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>818.2062848686787</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L38" t="n">
-        <v>1682.725100522033</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M38" t="n">
         <v>2216.257005193957</v>
@@ -7189,7 +7189,7 @@
         <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107237</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,28 +7253,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,19 +7347,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
         <v>1542.890966501056</v>
@@ -7368,16 +7368,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1170.39935408009</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>880.9821840431298</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>652.9926331451124</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>432.2000540015823</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7554,7 +7554,7 @@
         <v>260.9043113423046</v>
       </c>
       <c r="E43" t="n">
-        <v>112.9912177599115</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7639,46 +7639,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7721,28 +7721,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,13 +7833,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
         <v>1015.408799357142</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>201.9664098701136</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>189.7998007892655</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277304</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>201.9664098701124</v>
+        <v>317.5146261106135</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>201.9664098701136</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>76.85336204559623</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>63.20292720900936</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>113.7908987761683</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>109.0529576863943</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>156.4402149190424</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>1.372245949232607</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.33107165460019</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>111.2344680580374</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>58.19598621064689</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>147.7570121569884</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>130.3466769161725</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>169.5827852326855</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F43" t="n">
-        <v>128.1651665445294</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26319,43 +26319,43 @@
         <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078709</v>
+        <v>675039.0377078719</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="H2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="I2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="J2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="K2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="L2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="M2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="N2" t="n">
         <v>675039.0377078714</v>
-      </c>
-      <c r="M2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078713</v>
       </c>
       <c r="O2" t="n">
         <v>675039.0377078718</v>
       </c>
       <c r="P2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078718</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="C4" t="n">
-        <v>183348.686857128</v>
-      </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918999</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
@@ -26453,13 +26453,13 @@
         <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-158290.1397504409</v>
       </c>
       <c r="C6" t="n">
-        <v>431677.7394641036</v>
+        <v>431677.7394641035</v>
       </c>
       <c r="D6" t="n">
-        <v>431677.7394641036</v>
+        <v>431677.7394641038</v>
       </c>
       <c r="E6" t="n">
-        <v>-167542.3417606971</v>
+        <v>-166937.5823486641</v>
       </c>
       <c r="F6" t="n">
-        <v>559835.0722327097</v>
+        <v>560439.8316447424</v>
       </c>
       <c r="G6" t="n">
-        <v>559835.0722327098</v>
+        <v>560439.8316447424</v>
       </c>
       <c r="H6" t="n">
-        <v>559835.0722327101</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="I6" t="n">
-        <v>559835.0722327101</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="J6" t="n">
-        <v>383411.8530401168</v>
+        <v>384016.6124521492</v>
       </c>
       <c r="K6" t="n">
-        <v>559835.07223271</v>
+        <v>560439.8316447421</v>
       </c>
       <c r="L6" t="n">
-        <v>559835.0722327098</v>
+        <v>560439.8316447419</v>
       </c>
       <c r="M6" t="n">
-        <v>430192.757393765</v>
+        <v>430797.5168057975</v>
       </c>
       <c r="N6" t="n">
-        <v>559835.07223271</v>
+        <v>560439.8316447421</v>
       </c>
       <c r="O6" t="n">
-        <v>559835.0722327103</v>
+        <v>560439.8316447424</v>
       </c>
       <c r="P6" t="n">
-        <v>559835.0722327102</v>
+        <v>560439.8316447424</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>113.4626200781975</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>64.97345050525834</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>75.23878421646965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>157.1798903439268</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>313.1809522630431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>154.5813001752242</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>53.95978732560545</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>24.11076274067625</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.145715855630741</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>231.8210826836387</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>158.4692951086159</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.469682599151581e-13</v>
+        <v>-5.268850791002158e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8.769894134013742e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>539.157696425514</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>742.1016362021768</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200623</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>539.1576964255129</v>
+        <v>654.705912666014</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37080,13 +37080,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>539.157696425514</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
